--- a/Code/Results/Cases/Case_0_140/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_140/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9255196555906253</v>
+        <v>1.064403745703216</v>
       </c>
       <c r="D2">
-        <v>0.9437247754689879</v>
+        <v>1.068854331059169</v>
       </c>
       <c r="E2">
-        <v>0.9392352964644088</v>
+        <v>1.059360194672778</v>
       </c>
       <c r="F2">
-        <v>0.950757036270086</v>
+        <v>1.074484951601651</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040545203960165</v>
+        <v>1.028616942456438</v>
       </c>
       <c r="J2">
-        <v>0.9501816422662536</v>
+        <v>1.069364162928255</v>
       </c>
       <c r="K2">
-        <v>0.9560280759384555</v>
+        <v>1.071558399391786</v>
       </c>
       <c r="L2">
-        <v>0.9516115229208769</v>
+        <v>1.062089911287122</v>
       </c>
       <c r="M2">
-        <v>0.9629478794168432</v>
+        <v>1.077174040345946</v>
       </c>
       <c r="N2">
-        <v>0.9515310091856291</v>
+        <v>1.070882782697397</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9458622403887431</v>
+        <v>1.067432126304425</v>
       </c>
       <c r="D3">
-        <v>0.962176016266353</v>
+        <v>1.071637106053207</v>
       </c>
       <c r="E3">
-        <v>0.9568444422102234</v>
+        <v>1.062016139679305</v>
       </c>
       <c r="F3">
-        <v>0.9692704364429625</v>
+        <v>1.077261111564872</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041989454019684</v>
+        <v>1.028706295460768</v>
       </c>
       <c r="J3">
-        <v>0.9679460466525823</v>
+        <v>1.072037906608969</v>
       </c>
       <c r="K3">
-        <v>0.9733168849759681</v>
+        <v>1.074152358947299</v>
       </c>
       <c r="L3">
-        <v>0.968061001354274</v>
+        <v>1.06455541776405</v>
       </c>
       <c r="M3">
-        <v>0.9803122166730651</v>
+        <v>1.07976253416825</v>
       </c>
       <c r="N3">
-        <v>0.9693206410637923</v>
+        <v>1.07356032340082</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.958007552619091</v>
+        <v>1.06937848623887</v>
       </c>
       <c r="D4">
-        <v>0.9732043131620927</v>
+        <v>1.073425025095345</v>
       </c>
       <c r="E4">
-        <v>0.9673699509012723</v>
+        <v>1.063722623200556</v>
       </c>
       <c r="F4">
-        <v>0.9803376597381017</v>
+        <v>1.079044006668379</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042834046687437</v>
+        <v>1.02876060958436</v>
       </c>
       <c r="J4">
-        <v>0.9785500401800814</v>
+        <v>1.073755061722759</v>
       </c>
       <c r="K4">
-        <v>0.983637271209277</v>
+        <v>1.075817889811181</v>
       </c>
       <c r="L4">
-        <v>0.9778788262371276</v>
+        <v>1.066138444270211</v>
       </c>
       <c r="M4">
-        <v>0.9906793312335089</v>
+        <v>1.081423779036481</v>
       </c>
       <c r="N4">
-        <v>0.9799396934783956</v>
+        <v>1.075279917071833</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9629061302822458</v>
+        <v>1.070193664401052</v>
       </c>
       <c r="D5">
-        <v>0.9776545605729862</v>
+        <v>1.074173701984362</v>
       </c>
       <c r="E5">
-        <v>0.9716174289935678</v>
+        <v>1.064437212360323</v>
       </c>
       <c r="F5">
-        <v>0.9848036997962107</v>
+        <v>1.079790392869517</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043169989275107</v>
+        <v>1.028782609179578</v>
       </c>
       <c r="J5">
-        <v>0.982825993712803</v>
+        <v>1.074473937093221</v>
       </c>
       <c r="K5">
-        <v>0.987798786824528</v>
+        <v>1.076515060393026</v>
       </c>
       <c r="L5">
-        <v>0.9818373725612214</v>
+        <v>1.066801073486966</v>
       </c>
       <c r="M5">
-        <v>0.9948597550308463</v>
+        <v>1.082118967797181</v>
       </c>
       <c r="N5">
-        <v>0.9842217193555922</v>
+        <v>1.075999813327776</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9637173503922227</v>
+        <v>1.07033035885954</v>
       </c>
       <c r="D6">
-        <v>0.9783916471858544</v>
+        <v>1.074299236641826</v>
       </c>
       <c r="E6">
-        <v>0.9723209383291795</v>
+        <v>1.064557032101697</v>
       </c>
       <c r="F6">
-        <v>0.985543398482617</v>
+        <v>1.079915532418091</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043225332902463</v>
+        <v>1.02878625423059</v>
       </c>
       <c r="J6">
-        <v>0.9835340369650983</v>
+        <v>1.074594464837127</v>
       </c>
       <c r="K6">
-        <v>0.9884878725262402</v>
+        <v>1.076631943626964</v>
       </c>
       <c r="L6">
-        <v>0.9824928319432094</v>
+        <v>1.066912165389791</v>
       </c>
       <c r="M6">
-        <v>0.9955519671774725</v>
+        <v>1.082235507702484</v>
       </c>
       <c r="N6">
-        <v>0.9849307681105196</v>
+        <v>1.076120512234904</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9580737811691019</v>
+        <v>1.069389390639929</v>
       </c>
       <c r="D7">
-        <v>0.97326447237836</v>
+        <v>1.073435040492399</v>
       </c>
       <c r="E7">
-        <v>0.9674273685684605</v>
+        <v>1.063732182539764</v>
       </c>
       <c r="F7">
-        <v>0.9803980325063727</v>
+        <v>1.079053992159789</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042838607980879</v>
+        <v>1.028760906815136</v>
       </c>
       <c r="J7">
-        <v>0.9786078552679656</v>
+        <v>1.073764679117919</v>
       </c>
       <c r="K7">
-        <v>0.9836935394570645</v>
+        <v>1.075827217196588</v>
       </c>
       <c r="L7">
-        <v>0.9779323513378615</v>
+        <v>1.066147309552951</v>
       </c>
       <c r="M7">
-        <v>0.9907358552671277</v>
+        <v>1.081433080648688</v>
       </c>
       <c r="N7">
-        <v>0.9799975906703361</v>
+        <v>1.075289548124797</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9326305106154754</v>
+        <v>1.065429989855385</v>
       </c>
       <c r="D8">
-        <v>0.9501713065728131</v>
+        <v>1.069797466781066</v>
       </c>
       <c r="E8">
-        <v>0.9453874916054543</v>
+        <v>1.060260334605696</v>
       </c>
       <c r="F8">
-        <v>0.9572246529959725</v>
+        <v>1.07542600533518</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041053583570156</v>
+        <v>1.028647867919017</v>
       </c>
       <c r="J8">
-        <v>0.9563913801173314</v>
+        <v>1.070270494411261</v>
       </c>
       <c r="K8">
-        <v>0.9620713962297857</v>
+        <v>1.072437765768965</v>
       </c>
       <c r="L8">
-        <v>0.957361820861745</v>
+        <v>1.062925737286188</v>
       </c>
       <c r="M8">
-        <v>0.9690170070203735</v>
+        <v>1.078051714336241</v>
       </c>
       <c r="N8">
-        <v>0.9577495655767226</v>
+        <v>1.071790401275067</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8775553086617361</v>
+        <v>1.058347777830567</v>
       </c>
       <c r="D9">
-        <v>0.900352493238881</v>
+        <v>1.063286424764229</v>
       </c>
       <c r="E9">
-        <v>0.8978469844216493</v>
+        <v>1.054046324453896</v>
       </c>
       <c r="F9">
-        <v>0.9072743491527425</v>
+        <v>1.068926189156293</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03705906881504</v>
+        <v>1.02842163407217</v>
       </c>
       <c r="J9">
-        <v>0.9083197239747751</v>
+        <v>1.064010546241992</v>
       </c>
       <c r="K9">
-        <v>0.9152995557704915</v>
+        <v>1.066362486643547</v>
       </c>
       <c r="L9">
-        <v>0.9128477008874867</v>
+        <v>1.057151135187785</v>
       </c>
       <c r="M9">
-        <v>0.9220752202993993</v>
+        <v>1.071984970469591</v>
       </c>
       <c r="N9">
-        <v>0.9096096421685481</v>
+        <v>1.065521563261371</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8276862574598504</v>
+        <v>1.053549684627253</v>
       </c>
       <c r="D10">
-        <v>0.8555247524607739</v>
+        <v>1.05887238238032</v>
       </c>
       <c r="E10">
-        <v>0.8550789984476873</v>
+        <v>1.049833897324116</v>
       </c>
       <c r="F10">
-        <v>0.86242380893375</v>
+        <v>1.064515858065685</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033420821670862</v>
+        <v>1.028252318237376</v>
       </c>
       <c r="J10">
-        <v>0.864911334087241</v>
+        <v>1.059762922972372</v>
       </c>
       <c r="K10">
-        <v>0.8731051953549892</v>
+        <v>1.062238202889539</v>
       </c>
       <c r="L10">
-        <v>0.8726716423612063</v>
+        <v>1.053230786391808</v>
       </c>
       <c r="M10">
-        <v>0.879817598128144</v>
+        <v>1.067862573882963</v>
       </c>
       <c r="N10">
-        <v>0.8661396073883615</v>
+        <v>1.061267907879499</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7993195770800193</v>
+        <v>1.051452545755849</v>
       </c>
       <c r="D11">
-        <v>0.8301834057911556</v>
+        <v>1.056942439544046</v>
       </c>
       <c r="E11">
-        <v>0.8309085506455681</v>
+        <v>1.047992161441327</v>
       </c>
       <c r="F11">
-        <v>0.8371271976651382</v>
+        <v>1.062586635767228</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031382554575851</v>
+        <v>1.028174544183082</v>
       </c>
       <c r="J11">
-        <v>0.8403104852906007</v>
+        <v>1.057904828556596</v>
       </c>
       <c r="K11">
-        <v>0.8492191082723183</v>
+        <v>1.060433603597233</v>
       </c>
       <c r="L11">
-        <v>0.8499217308414787</v>
+        <v>1.051515370051791</v>
       </c>
       <c r="M11">
-        <v>0.8559494391224102</v>
+        <v>1.066057897873709</v>
       </c>
       <c r="N11">
-        <v>0.841503822564673</v>
+        <v>1.059407174756527</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7868900388831455</v>
+        <v>1.050670522904449</v>
       </c>
       <c r="D12">
-        <v>0.8191221976764865</v>
+        <v>1.056222666572231</v>
       </c>
       <c r="E12">
-        <v>0.8203604554938704</v>
+        <v>1.047305293258374</v>
       </c>
       <c r="F12">
-        <v>0.8261011521115478</v>
+        <v>1.061866997945824</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030501136158206</v>
+        <v>1.028144979039361</v>
       </c>
       <c r="J12">
-        <v>0.8295582492809244</v>
+        <v>1.057211713051172</v>
       </c>
       <c r="K12">
-        <v>0.8387868852820672</v>
+        <v>1.059760374797199</v>
       </c>
       <c r="L12">
-        <v>0.8399845917883147</v>
+        <v>1.050875404097188</v>
       </c>
       <c r="M12">
-        <v>0.8455394876432696</v>
+        <v>1.065384506959405</v>
       </c>
       <c r="N12">
-        <v>0.8307363171465644</v>
+        <v>1.058713074947583</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7896709726917283</v>
+        <v>1.050838409500777</v>
       </c>
       <c r="D13">
-        <v>0.8215945652686718</v>
+        <v>1.056377193583822</v>
       </c>
       <c r="E13">
-        <v>0.822718011960161</v>
+        <v>1.047452755633348</v>
       </c>
       <c r="F13">
-        <v>0.8285647779057651</v>
+        <v>1.062021501951339</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030697638142224</v>
+        <v>1.028151351577729</v>
       </c>
       <c r="J13">
-        <v>0.8319623205805895</v>
+        <v>1.057360523287193</v>
       </c>
       <c r="K13">
-        <v>0.8411189678390353</v>
+        <v>1.059904918484111</v>
       </c>
       <c r="L13">
-        <v>0.8422060523767378</v>
+        <v>1.051012806548801</v>
       </c>
       <c r="M13">
-        <v>0.8478657802939722</v>
+        <v>1.065529091455907</v>
       </c>
       <c r="N13">
-        <v>0.8331438025032258</v>
+        <v>1.058862096511208</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7983404151344727</v>
+        <v>1.051387966457541</v>
       </c>
       <c r="D14">
-        <v>0.8293110408454799</v>
+        <v>1.056883002802341</v>
       </c>
       <c r="E14">
-        <v>0.8300766039553926</v>
+        <v>1.047935441720053</v>
       </c>
       <c r="F14">
-        <v>0.8362572421091314</v>
+        <v>1.062527212895788</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031312832871837</v>
+        <v>1.02817211415558</v>
       </c>
       <c r="J14">
-        <v>0.8394628064654379</v>
+        <v>1.057847595936558</v>
       </c>
       <c r="K14">
-        <v>0.8483964788363462</v>
+        <v>1.06037801446979</v>
       </c>
       <c r="L14">
-        <v>0.8491381636910204</v>
+        <v>1.051462527634266</v>
       </c>
       <c r="M14">
-        <v>0.8551282311348105</v>
+        <v>1.066002298067677</v>
       </c>
       <c r="N14">
-        <v>0.8406549399383485</v>
+        <v>1.059349860859603</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.803384847787689</v>
+        <v>1.05172615862937</v>
       </c>
       <c r="D15">
-        <v>0.8338070453436921</v>
+        <v>1.057194260197556</v>
       </c>
       <c r="E15">
-        <v>0.8343643860101903</v>
+        <v>1.04823247098932</v>
       </c>
       <c r="F15">
-        <v>0.8407414765705041</v>
+        <v>1.062838392205933</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031672520660503</v>
+        <v>1.028184816838807</v>
       </c>
       <c r="J15">
-        <v>0.8438310044900001</v>
+        <v>1.058147305156268</v>
       </c>
       <c r="K15">
-        <v>0.8526359111700577</v>
+        <v>1.060669114447236</v>
       </c>
       <c r="L15">
-        <v>0.853176243825097</v>
+        <v>1.051739243764195</v>
       </c>
       <c r="M15">
-        <v>0.8593609350754285</v>
+        <v>1.066293448520204</v>
       </c>
       <c r="N15">
-        <v>0.8450293413051452</v>
+        <v>1.059649995700783</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8293733127156593</v>
+        <v>1.053688443340699</v>
       </c>
       <c r="D16">
-        <v>0.8570358248210846</v>
+        <v>1.059000064700035</v>
       </c>
       <c r="E16">
-        <v>0.8565204271138833</v>
+        <v>1.049955745125523</v>
       </c>
       <c r="F16">
-        <v>0.8639336675115119</v>
+        <v>1.064643473947556</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033543021142596</v>
+        <v>1.028257385349631</v>
       </c>
       <c r="J16">
-        <v>0.8663768357970518</v>
+        <v>1.059885832618036</v>
       </c>
       <c r="K16">
-        <v>0.8745288090975516</v>
+        <v>1.06235756435186</v>
       </c>
       <c r="L16">
-        <v>0.8740274093191155</v>
+        <v>1.053344247945791</v>
       </c>
       <c r="M16">
-        <v>0.8812414920345157</v>
+        <v>1.067981921661329</v>
       </c>
       <c r="N16">
-        <v>0.8676071902786956</v>
+        <v>1.061390992070958</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8435023434883191</v>
+        <v>1.054914021315716</v>
       </c>
       <c r="D17">
-        <v>0.8697069688919764</v>
+        <v>1.06012773504143</v>
       </c>
       <c r="E17">
-        <v>0.86860823099074</v>
+        <v>1.051031892207867</v>
       </c>
       <c r="F17">
-        <v>0.8766005132459981</v>
+        <v>1.065770454070924</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034569757161291</v>
+        <v>1.028301707324655</v>
       </c>
       <c r="J17">
-        <v>0.8786596199381367</v>
+        <v>1.06097124619261</v>
       </c>
       <c r="K17">
-        <v>0.8864632439192789</v>
+        <v>1.063411591307194</v>
       </c>
       <c r="L17">
-        <v>0.8853924279470353</v>
+        <v>1.054346169708111</v>
       </c>
       <c r="M17">
-        <v>0.893183756667061</v>
+        <v>1.069035724351104</v>
       </c>
       <c r="N17">
-        <v>0.8799074173821158</v>
+        <v>1.062477947057307</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8511673174326269</v>
+        <v>1.055627003683143</v>
       </c>
       <c r="D18">
-        <v>0.8765924402135268</v>
+        <v>1.060783695593508</v>
       </c>
       <c r="E18">
-        <v>0.8751771688165063</v>
+        <v>1.051657887230524</v>
       </c>
       <c r="F18">
-        <v>0.8834878311275879</v>
+        <v>1.066425926451106</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035128804852312</v>
+        <v>1.028327129784685</v>
       </c>
       <c r="J18">
-        <v>0.8853293927310503</v>
+        <v>1.061602538505062</v>
       </c>
       <c r="K18">
-        <v>0.8929457680405113</v>
+        <v>1.064024584650605</v>
       </c>
       <c r="L18">
-        <v>0.8915651526880741</v>
+        <v>1.054928855358737</v>
       </c>
       <c r="M18">
-        <v>0.8996744414477862</v>
+        <v>1.069648500592482</v>
       </c>
       <c r="N18">
-        <v>0.8865866620174293</v>
+        <v>1.063110135877253</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8536965249975442</v>
+        <v>1.055869797463656</v>
       </c>
       <c r="D19">
-        <v>0.8788661111932062</v>
+        <v>1.061007060685006</v>
       </c>
       <c r="E19">
-        <v>0.8773463800828351</v>
+        <v>1.051871049488389</v>
       </c>
       <c r="F19">
-        <v>0.8857627226236056</v>
+        <v>1.066649110551965</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035313515565799</v>
+        <v>1.028335725477443</v>
       </c>
       <c r="J19">
-        <v>0.8875311146196828</v>
+        <v>1.061817488824176</v>
       </c>
       <c r="K19">
-        <v>0.8950859531011697</v>
+        <v>1.064233296815799</v>
       </c>
       <c r="L19">
-        <v>0.8936029769071905</v>
+        <v>1.055127247564125</v>
       </c>
       <c r="M19">
-        <v>0.9018178927873312</v>
+        <v>1.069857124074533</v>
       </c>
       <c r="N19">
-        <v>0.8887915106036844</v>
+        <v>1.063325391450475</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8420494978533959</v>
+        <v>1.054782723334973</v>
       </c>
       <c r="D20">
-        <v>0.8684027540991126</v>
+        <v>1.060006932646272</v>
       </c>
       <c r="E20">
-        <v>0.8673640066950772</v>
+        <v>1.050916608726803</v>
       </c>
       <c r="F20">
-        <v>0.8752962708329602</v>
+        <v>1.065649734576553</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034463936275956</v>
+        <v>1.028296996498232</v>
       </c>
       <c r="J20">
-        <v>0.8773958916027516</v>
+        <v>1.060854979665842</v>
       </c>
       <c r="K20">
-        <v>0.885235139858123</v>
+        <v>1.063298691386386</v>
       </c>
       <c r="L20">
-        <v>0.8842229738820192</v>
+        <v>1.054238851421313</v>
       </c>
       <c r="M20">
-        <v>0.8919544080358444</v>
+        <v>1.068922857412594</v>
       </c>
       <c r="N20">
-        <v>0.8786418944075429</v>
+        <v>1.062361515418735</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7958531395038054</v>
+        <v>1.051226220844427</v>
       </c>
       <c r="D21">
-        <v>0.8270958052112658</v>
+        <v>1.056734135694814</v>
       </c>
       <c r="E21">
-        <v>0.8279640411147697</v>
+        <v>1.047793379873758</v>
       </c>
       <c r="F21">
-        <v>0.8340484002705373</v>
+        <v>1.062378378379244</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031135939214184</v>
+        <v>1.028166018818732</v>
       </c>
       <c r="J21">
-        <v>0.8373100135310307</v>
+        <v>1.057704247102953</v>
       </c>
       <c r="K21">
-        <v>0.8463074375970656</v>
+        <v>1.060238780942868</v>
       </c>
       <c r="L21">
-        <v>0.8471483018531433</v>
+        <v>1.051330173633192</v>
       </c>
       <c r="M21">
-        <v>0.8530430534671114</v>
+        <v>1.065863035647157</v>
       </c>
       <c r="N21">
-        <v>0.8384990897910457</v>
+        <v>1.059206308454213</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7536814542800747</v>
+        <v>1.04897238736131</v>
       </c>
       <c r="D22">
-        <v>0.7897156714992251</v>
+        <v>1.054659528384192</v>
       </c>
       <c r="E22">
-        <v>0.7923257592529134</v>
+        <v>1.045813628986947</v>
       </c>
       <c r="F22">
-        <v>0.7968407133370063</v>
+        <v>1.060303910738075</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028189793433409</v>
+        <v>1.028079751163292</v>
       </c>
       <c r="J22">
-        <v>0.8009292551108674</v>
+        <v>1.055706212423497</v>
       </c>
       <c r="K22">
-        <v>0.8110365542471012</v>
+        <v>1.058297945196023</v>
       </c>
       <c r="L22">
-        <v>0.8135487695295965</v>
+        <v>1.04948521490176</v>
       </c>
       <c r="M22">
-        <v>0.8178965486613328</v>
+        <v>1.063921482925037</v>
       </c>
       <c r="N22">
-        <v>0.8020666665209945</v>
+        <v>1.057205436336334</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7781462861443933</v>
+        <v>1.050168906849766</v>
       </c>
       <c r="D23">
-        <v>0.8113580850326779</v>
+        <v>1.055760952536984</v>
       </c>
       <c r="E23">
-        <v>0.8129573794262365</v>
+        <v>1.046864688921008</v>
       </c>
       <c r="F23">
-        <v>0.8183679169417056</v>
+        <v>1.061405333240324</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029886097761617</v>
+        <v>1.02812585676196</v>
       </c>
       <c r="J23">
-        <v>0.8220057146184845</v>
+        <v>1.056767059920024</v>
       </c>
       <c r="K23">
-        <v>0.8314622246027279</v>
+        <v>1.05932846039377</v>
       </c>
       <c r="L23">
-        <v>0.8330071982703583</v>
+        <v>1.050464827376597</v>
       </c>
       <c r="M23">
-        <v>0.8382361527647197</v>
+        <v>1.064952451222203</v>
       </c>
       <c r="N23">
-        <v>0.8231730570186158</v>
+        <v>1.058267790357986</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8427077111348362</v>
+        <v>1.054842057032564</v>
       </c>
       <c r="D24">
-        <v>0.868993594633464</v>
+        <v>1.060061523575272</v>
       </c>
       <c r="E24">
-        <v>0.8679276687060169</v>
+        <v>1.050968705627154</v>
       </c>
       <c r="F24">
-        <v>0.8758871109138285</v>
+        <v>1.065704288310773</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034511872377128</v>
+        <v>1.028299126445682</v>
       </c>
       <c r="J24">
-        <v>0.877968405400387</v>
+        <v>1.060907521094832</v>
       </c>
       <c r="K24">
-        <v>0.8857915086841408</v>
+        <v>1.063349711565542</v>
       </c>
       <c r="L24">
-        <v>0.8847527740541365</v>
+        <v>1.054287349239813</v>
       </c>
       <c r="M24">
-        <v>0.8925113285675377</v>
+        <v>1.068973862955187</v>
       </c>
       <c r="N24">
-        <v>0.8792152212404395</v>
+        <v>1.06241413146258</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8934502165206027</v>
+        <v>1.06019176451774</v>
       </c>
       <c r="D25">
-        <v>0.9147018481373538</v>
+        <v>1.064982213898239</v>
       </c>
       <c r="E25">
-        <v>0.9115391911275302</v>
+        <v>1.055664707598433</v>
       </c>
       <c r="F25">
-        <v>0.9216527470480257</v>
+        <v>1.070619743892874</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038221226638853</v>
+        <v>1.028483357108061</v>
       </c>
       <c r="J25">
-        <v>0.9221848227609607</v>
+        <v>1.065641599946277</v>
       </c>
       <c r="K25">
-        <v>0.9287863242750372</v>
+        <v>1.067945770163264</v>
       </c>
       <c r="L25">
-        <v>0.9256857951681517</v>
+        <v>1.058656089067854</v>
       </c>
       <c r="M25">
-        <v>0.9356026395061875</v>
+        <v>1.073566720477463</v>
       </c>
       <c r="N25">
-        <v>0.9234944309853589</v>
+        <v>1.067154933249001</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_140/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_140/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.064403745703216</v>
+        <v>0.9255196555906263</v>
       </c>
       <c r="D2">
-        <v>1.068854331059169</v>
+        <v>0.943724775468989</v>
       </c>
       <c r="E2">
-        <v>1.059360194672778</v>
+        <v>0.93923529646441</v>
       </c>
       <c r="F2">
-        <v>1.074484951601651</v>
+        <v>0.9507570362700871</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028616942456438</v>
+        <v>1.040545203960165</v>
       </c>
       <c r="J2">
-        <v>1.069364162928255</v>
+        <v>0.9501816422662545</v>
       </c>
       <c r="K2">
-        <v>1.071558399391786</v>
+        <v>0.9560280759384565</v>
       </c>
       <c r="L2">
-        <v>1.062089911287122</v>
+        <v>0.9516115229208779</v>
       </c>
       <c r="M2">
-        <v>1.077174040345946</v>
+        <v>0.9629478794168441</v>
       </c>
       <c r="N2">
-        <v>1.070882782697397</v>
+        <v>0.9515310091856303</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.067432126304425</v>
+        <v>0.9458622403887429</v>
       </c>
       <c r="D3">
-        <v>1.071637106053207</v>
+        <v>0.9621760162663531</v>
       </c>
       <c r="E3">
-        <v>1.062016139679305</v>
+        <v>0.9568444422102231</v>
       </c>
       <c r="F3">
-        <v>1.077261111564872</v>
+        <v>0.9692704364429624</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028706295460768</v>
+        <v>1.041989454019684</v>
       </c>
       <c r="J3">
-        <v>1.072037906608969</v>
+        <v>0.9679460466525822</v>
       </c>
       <c r="K3">
-        <v>1.074152358947299</v>
+        <v>0.973316884975968</v>
       </c>
       <c r="L3">
-        <v>1.06455541776405</v>
+        <v>0.9680610013542736</v>
       </c>
       <c r="M3">
-        <v>1.07976253416825</v>
+        <v>0.9803122166730651</v>
       </c>
       <c r="N3">
-        <v>1.07356032340082</v>
+        <v>0.969320641063792</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.06937848623887</v>
+        <v>0.9580075526190938</v>
       </c>
       <c r="D4">
-        <v>1.073425025095345</v>
+        <v>0.9732043131620952</v>
       </c>
       <c r="E4">
-        <v>1.063722623200556</v>
+        <v>0.9673699509012744</v>
       </c>
       <c r="F4">
-        <v>1.079044006668379</v>
+        <v>0.9803376597381037</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02876060958436</v>
+        <v>1.042834046687437</v>
       </c>
       <c r="J4">
-        <v>1.073755061722759</v>
+        <v>0.9785500401800838</v>
       </c>
       <c r="K4">
-        <v>1.075817889811181</v>
+        <v>0.9836372712092798</v>
       </c>
       <c r="L4">
-        <v>1.066138444270211</v>
+        <v>0.9778788262371299</v>
       </c>
       <c r="M4">
-        <v>1.081423779036481</v>
+        <v>0.9906793312335107</v>
       </c>
       <c r="N4">
-        <v>1.075279917071833</v>
+        <v>0.979939693478398</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.070193664401052</v>
+        <v>0.9629061302822448</v>
       </c>
       <c r="D5">
-        <v>1.074173701984362</v>
+        <v>0.9776545605729852</v>
       </c>
       <c r="E5">
-        <v>1.064437212360323</v>
+        <v>0.9716174289935665</v>
       </c>
       <c r="F5">
-        <v>1.079790392869517</v>
+        <v>0.98480369979621</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028782609179578</v>
+        <v>1.043169989275107</v>
       </c>
       <c r="J5">
-        <v>1.074473937093221</v>
+        <v>0.9828259937128018</v>
       </c>
       <c r="K5">
-        <v>1.076515060393026</v>
+        <v>0.9877987868245272</v>
       </c>
       <c r="L5">
-        <v>1.066801073486966</v>
+        <v>0.9818373725612203</v>
       </c>
       <c r="M5">
-        <v>1.082118967797181</v>
+        <v>0.9948597550308456</v>
       </c>
       <c r="N5">
-        <v>1.075999813327776</v>
+        <v>0.9842217193555911</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.07033035885954</v>
+        <v>0.9637173503922243</v>
       </c>
       <c r="D6">
-        <v>1.074299236641826</v>
+        <v>0.9783916471858554</v>
       </c>
       <c r="E6">
-        <v>1.064557032101697</v>
+        <v>0.9723209383291807</v>
       </c>
       <c r="F6">
-        <v>1.079915532418091</v>
+        <v>0.9855433984826181</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02878625423059</v>
+        <v>1.043225332902463</v>
       </c>
       <c r="J6">
-        <v>1.074594464837127</v>
+        <v>0.9835340369650997</v>
       </c>
       <c r="K6">
-        <v>1.076631943626964</v>
+        <v>0.9884878725262412</v>
       </c>
       <c r="L6">
-        <v>1.066912165389791</v>
+        <v>0.9824928319432105</v>
       </c>
       <c r="M6">
-        <v>1.082235507702484</v>
+        <v>0.9955519671774735</v>
       </c>
       <c r="N6">
-        <v>1.076120512234904</v>
+        <v>0.9849307681105207</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.069389390639929</v>
+        <v>0.9580737811690997</v>
       </c>
       <c r="D7">
-        <v>1.073435040492399</v>
+        <v>0.9732644723783578</v>
       </c>
       <c r="E7">
-        <v>1.063732182539764</v>
+        <v>0.9674273685684586</v>
       </c>
       <c r="F7">
-        <v>1.079053992159789</v>
+        <v>0.9803980325063701</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028760906815136</v>
+        <v>1.042838607980879</v>
       </c>
       <c r="J7">
-        <v>1.073764679117919</v>
+        <v>0.9786078552679633</v>
       </c>
       <c r="K7">
-        <v>1.075827217196588</v>
+        <v>0.9836935394570623</v>
       </c>
       <c r="L7">
-        <v>1.066147309552951</v>
+        <v>0.9779323513378596</v>
       </c>
       <c r="M7">
-        <v>1.081433080648688</v>
+        <v>0.9907358552671253</v>
       </c>
       <c r="N7">
-        <v>1.075289548124797</v>
+        <v>0.9799975906703341</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.065429989855385</v>
+        <v>0.9326305106154742</v>
       </c>
       <c r="D8">
-        <v>1.069797466781066</v>
+        <v>0.9501713065728119</v>
       </c>
       <c r="E8">
-        <v>1.060260334605696</v>
+        <v>0.9453874916054534</v>
       </c>
       <c r="F8">
-        <v>1.07542600533518</v>
+        <v>0.957224652995971</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028647867919017</v>
+        <v>1.041053583570156</v>
       </c>
       <c r="J8">
-        <v>1.070270494411261</v>
+        <v>0.9563913801173303</v>
       </c>
       <c r="K8">
-        <v>1.072437765768965</v>
+        <v>0.9620713962297844</v>
       </c>
       <c r="L8">
-        <v>1.062925737286188</v>
+        <v>0.9573618208617442</v>
       </c>
       <c r="M8">
-        <v>1.078051714336241</v>
+        <v>0.9690170070203722</v>
       </c>
       <c r="N8">
-        <v>1.071790401275067</v>
+        <v>0.9577495655767214</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.058347777830567</v>
+        <v>0.8775553086617401</v>
       </c>
       <c r="D9">
-        <v>1.063286424764229</v>
+        <v>0.9003524932388844</v>
       </c>
       <c r="E9">
-        <v>1.054046324453896</v>
+        <v>0.8978469844216527</v>
       </c>
       <c r="F9">
-        <v>1.068926189156293</v>
+        <v>0.9072743491527462</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02842163407217</v>
+        <v>1.037059068815041</v>
       </c>
       <c r="J9">
-        <v>1.064010546241992</v>
+        <v>0.9083197239747787</v>
       </c>
       <c r="K9">
-        <v>1.066362486643547</v>
+        <v>0.915299555770495</v>
       </c>
       <c r="L9">
-        <v>1.057151135187785</v>
+        <v>0.9128477008874901</v>
       </c>
       <c r="M9">
-        <v>1.071984970469591</v>
+        <v>0.9220752202994028</v>
       </c>
       <c r="N9">
-        <v>1.065521563261371</v>
+        <v>0.9096096421685514</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053549684627253</v>
+        <v>0.8276862574598544</v>
       </c>
       <c r="D10">
-        <v>1.05887238238032</v>
+        <v>0.8555247524607777</v>
       </c>
       <c r="E10">
-        <v>1.049833897324116</v>
+        <v>0.8550789984476904</v>
       </c>
       <c r="F10">
-        <v>1.064515858065685</v>
+        <v>0.8624238089337538</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028252318237376</v>
+        <v>1.033420821670863</v>
       </c>
       <c r="J10">
-        <v>1.059762922972372</v>
+        <v>0.8649113340872445</v>
       </c>
       <c r="K10">
-        <v>1.062238202889539</v>
+        <v>0.8731051953549928</v>
       </c>
       <c r="L10">
-        <v>1.053230786391808</v>
+        <v>0.8726716423612095</v>
       </c>
       <c r="M10">
-        <v>1.067862573882963</v>
+        <v>0.8798175981281475</v>
       </c>
       <c r="N10">
-        <v>1.061267907879499</v>
+        <v>0.8661396073883649</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.051452545755849</v>
+        <v>0.7993195770800198</v>
       </c>
       <c r="D11">
-        <v>1.056942439544046</v>
+        <v>0.830183405791156</v>
       </c>
       <c r="E11">
-        <v>1.047992161441327</v>
+        <v>0.8309085506455688</v>
       </c>
       <c r="F11">
-        <v>1.062586635767228</v>
+        <v>0.8371271976651384</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028174544183082</v>
+        <v>1.031382554575851</v>
       </c>
       <c r="J11">
-        <v>1.057904828556596</v>
+        <v>0.8403104852906012</v>
       </c>
       <c r="K11">
-        <v>1.060433603597233</v>
+        <v>0.8492191082723186</v>
       </c>
       <c r="L11">
-        <v>1.051515370051791</v>
+        <v>0.8499217308414792</v>
       </c>
       <c r="M11">
-        <v>1.066057897873709</v>
+        <v>0.8559494391224105</v>
       </c>
       <c r="N11">
-        <v>1.059407174756527</v>
+        <v>0.8415038225646736</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.050670522904449</v>
+        <v>0.7868900388831501</v>
       </c>
       <c r="D12">
-        <v>1.056222666572231</v>
+        <v>0.8191221976764911</v>
       </c>
       <c r="E12">
-        <v>1.047305293258374</v>
+        <v>0.8203604554938744</v>
       </c>
       <c r="F12">
-        <v>1.061866997945824</v>
+        <v>0.8261011521115518</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028144979039361</v>
+        <v>1.030501136158206</v>
       </c>
       <c r="J12">
-        <v>1.057211713051172</v>
+        <v>0.8295582492809289</v>
       </c>
       <c r="K12">
-        <v>1.059760374797199</v>
+        <v>0.8387868852820713</v>
       </c>
       <c r="L12">
-        <v>1.050875404097188</v>
+        <v>0.8399845917883187</v>
       </c>
       <c r="M12">
-        <v>1.065384506959405</v>
+        <v>0.8455394876432737</v>
       </c>
       <c r="N12">
-        <v>1.058713074947583</v>
+        <v>0.8307363171465688</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050838409500777</v>
+        <v>0.7896709726917258</v>
       </c>
       <c r="D13">
-        <v>1.056377193583822</v>
+        <v>0.8215945652686696</v>
       </c>
       <c r="E13">
-        <v>1.047452755633348</v>
+        <v>0.8227180119601594</v>
       </c>
       <c r="F13">
-        <v>1.062021501951339</v>
+        <v>0.8285647779057629</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028151351577729</v>
+        <v>1.030697638142224</v>
       </c>
       <c r="J13">
-        <v>1.057360523287193</v>
+        <v>0.8319623205805874</v>
       </c>
       <c r="K13">
-        <v>1.059904918484111</v>
+        <v>0.8411189678390329</v>
       </c>
       <c r="L13">
-        <v>1.051012806548801</v>
+        <v>0.8422060523767362</v>
       </c>
       <c r="M13">
-        <v>1.065529091455907</v>
+        <v>0.84786578029397</v>
       </c>
       <c r="N13">
-        <v>1.058862096511208</v>
+        <v>0.8331438025032237</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.051387966457541</v>
+        <v>0.7983404151344733</v>
       </c>
       <c r="D14">
-        <v>1.056883002802341</v>
+        <v>0.8293110408454806</v>
       </c>
       <c r="E14">
-        <v>1.047935441720053</v>
+        <v>0.830076603955393</v>
       </c>
       <c r="F14">
-        <v>1.062527212895788</v>
+        <v>0.8362572421091319</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02817211415558</v>
+        <v>1.031312832871837</v>
       </c>
       <c r="J14">
-        <v>1.057847595936558</v>
+        <v>0.8394628064654385</v>
       </c>
       <c r="K14">
-        <v>1.06037801446979</v>
+        <v>0.8483964788363466</v>
       </c>
       <c r="L14">
-        <v>1.051462527634266</v>
+        <v>0.8491381636910207</v>
       </c>
       <c r="M14">
-        <v>1.066002298067677</v>
+        <v>0.8551282311348107</v>
       </c>
       <c r="N14">
-        <v>1.059349860859603</v>
+        <v>0.8406549399383491</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05172615862937</v>
+        <v>0.8033848477876862</v>
       </c>
       <c r="D15">
-        <v>1.057194260197556</v>
+        <v>0.8338070453436897</v>
       </c>
       <c r="E15">
-        <v>1.04823247098932</v>
+        <v>0.834364386010188</v>
       </c>
       <c r="F15">
-        <v>1.062838392205933</v>
+        <v>0.840741476570502</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028184816838807</v>
+        <v>1.031672520660503</v>
       </c>
       <c r="J15">
-        <v>1.058147305156268</v>
+        <v>0.8438310044899977</v>
       </c>
       <c r="K15">
-        <v>1.060669114447236</v>
+        <v>0.8526359111700552</v>
       </c>
       <c r="L15">
-        <v>1.051739243764195</v>
+        <v>0.8531762438250948</v>
       </c>
       <c r="M15">
-        <v>1.066293448520204</v>
+        <v>0.8593609350754262</v>
       </c>
       <c r="N15">
-        <v>1.059649995700783</v>
+        <v>0.8450293413051426</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053688443340699</v>
+        <v>0.8293733127156678</v>
       </c>
       <c r="D16">
-        <v>1.059000064700035</v>
+        <v>0.8570358248210924</v>
       </c>
       <c r="E16">
-        <v>1.049955745125523</v>
+        <v>0.8565204271138911</v>
       </c>
       <c r="F16">
-        <v>1.064643473947556</v>
+        <v>0.8639336675115193</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028257385349631</v>
+        <v>1.033543021142597</v>
       </c>
       <c r="J16">
-        <v>1.059885832618036</v>
+        <v>0.8663768357970598</v>
       </c>
       <c r="K16">
-        <v>1.06235756435186</v>
+        <v>0.8745288090975591</v>
       </c>
       <c r="L16">
-        <v>1.053344247945791</v>
+        <v>0.8740274093191229</v>
       </c>
       <c r="M16">
-        <v>1.067981921661329</v>
+        <v>0.8812414920345233</v>
       </c>
       <c r="N16">
-        <v>1.061390992070958</v>
+        <v>0.8676071902787038</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.054914021315716</v>
+        <v>0.8435023434883212</v>
       </c>
       <c r="D17">
-        <v>1.06012773504143</v>
+        <v>0.8697069688919785</v>
       </c>
       <c r="E17">
-        <v>1.051031892207867</v>
+        <v>0.8686082309907417</v>
       </c>
       <c r="F17">
-        <v>1.065770454070924</v>
+        <v>0.8766005132460002</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028301707324655</v>
+        <v>1.034569757161291</v>
       </c>
       <c r="J17">
-        <v>1.06097124619261</v>
+        <v>0.8786596199381386</v>
       </c>
       <c r="K17">
-        <v>1.063411591307194</v>
+        <v>0.886463243919281</v>
       </c>
       <c r="L17">
-        <v>1.054346169708111</v>
+        <v>0.8853924279470369</v>
       </c>
       <c r="M17">
-        <v>1.069035724351104</v>
+        <v>0.893183756667063</v>
       </c>
       <c r="N17">
-        <v>1.062477947057307</v>
+        <v>0.8799074173821176</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.055627003683143</v>
+        <v>0.8511673174326287</v>
       </c>
       <c r="D18">
-        <v>1.060783695593508</v>
+        <v>0.8765924402135284</v>
       </c>
       <c r="E18">
-        <v>1.051657887230524</v>
+        <v>0.8751771688165075</v>
       </c>
       <c r="F18">
-        <v>1.066425926451106</v>
+        <v>0.8834878311275892</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028327129784685</v>
+        <v>1.035128804852312</v>
       </c>
       <c r="J18">
-        <v>1.061602538505062</v>
+        <v>0.8853293927310519</v>
       </c>
       <c r="K18">
-        <v>1.064024584650605</v>
+        <v>0.892945768040513</v>
       </c>
       <c r="L18">
-        <v>1.054928855358737</v>
+        <v>0.8915651526880756</v>
       </c>
       <c r="M18">
-        <v>1.069648500592482</v>
+        <v>0.8996744414477874</v>
       </c>
       <c r="N18">
-        <v>1.063110135877253</v>
+        <v>0.8865866620174309</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.055869797463656</v>
+        <v>0.8536965249975417</v>
       </c>
       <c r="D19">
-        <v>1.061007060685006</v>
+        <v>0.8788661111932037</v>
       </c>
       <c r="E19">
-        <v>1.051871049488389</v>
+        <v>0.8773463800828326</v>
       </c>
       <c r="F19">
-        <v>1.066649110551965</v>
+        <v>0.885762722623604</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028335725477443</v>
+        <v>1.035313515565799</v>
       </c>
       <c r="J19">
-        <v>1.061817488824176</v>
+        <v>0.8875311146196804</v>
       </c>
       <c r="K19">
-        <v>1.064233296815799</v>
+        <v>0.8950859531011673</v>
       </c>
       <c r="L19">
-        <v>1.055127247564125</v>
+        <v>0.8936029769071877</v>
       </c>
       <c r="M19">
-        <v>1.069857124074533</v>
+        <v>0.9018178927873292</v>
       </c>
       <c r="N19">
-        <v>1.063325391450475</v>
+        <v>0.888791510603682</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.054782723334973</v>
+        <v>0.8420494978533928</v>
       </c>
       <c r="D20">
-        <v>1.060006932646272</v>
+        <v>0.8684027540991101</v>
       </c>
       <c r="E20">
-        <v>1.050916608726803</v>
+        <v>0.8673640066950743</v>
       </c>
       <c r="F20">
-        <v>1.065649734576553</v>
+        <v>0.8752962708329575</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028296996498232</v>
+        <v>1.034463936275956</v>
       </c>
       <c r="J20">
-        <v>1.060854979665842</v>
+        <v>0.8773958916027489</v>
       </c>
       <c r="K20">
-        <v>1.063298691386386</v>
+        <v>0.8852351398581205</v>
       </c>
       <c r="L20">
-        <v>1.054238851421313</v>
+        <v>0.8842229738820165</v>
       </c>
       <c r="M20">
-        <v>1.068922857412594</v>
+        <v>0.8919544080358417</v>
       </c>
       <c r="N20">
-        <v>1.062361515418735</v>
+        <v>0.8786418944075401</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.051226220844427</v>
+        <v>0.7958531395038075</v>
       </c>
       <c r="D21">
-        <v>1.056734135694814</v>
+        <v>0.8270958052112677</v>
       </c>
       <c r="E21">
-        <v>1.047793379873758</v>
+        <v>0.8279640411147722</v>
       </c>
       <c r="F21">
-        <v>1.062378378379244</v>
+        <v>0.8340484002705396</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028166018818732</v>
+        <v>1.031135939214184</v>
       </c>
       <c r="J21">
-        <v>1.057704247102953</v>
+        <v>0.8373100135310328</v>
       </c>
       <c r="K21">
-        <v>1.060238780942868</v>
+        <v>0.8463074375970675</v>
       </c>
       <c r="L21">
-        <v>1.051330173633192</v>
+        <v>0.8471483018531453</v>
       </c>
       <c r="M21">
-        <v>1.065863035647157</v>
+        <v>0.8530430534671134</v>
       </c>
       <c r="N21">
-        <v>1.059206308454213</v>
+        <v>0.8384990897910477</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04897238736131</v>
+        <v>0.7536814542800685</v>
       </c>
       <c r="D22">
-        <v>1.054659528384192</v>
+        <v>0.7897156714992194</v>
       </c>
       <c r="E22">
-        <v>1.045813628986947</v>
+        <v>0.7923257592529084</v>
       </c>
       <c r="F22">
-        <v>1.060303910738075</v>
+        <v>0.7968407133370012</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028079751163292</v>
+        <v>1.028189793433408</v>
       </c>
       <c r="J22">
-        <v>1.055706212423497</v>
+        <v>0.8009292551108619</v>
       </c>
       <c r="K22">
-        <v>1.058297945196023</v>
+        <v>0.8110365542470961</v>
       </c>
       <c r="L22">
-        <v>1.04948521490176</v>
+        <v>0.8135487695295917</v>
       </c>
       <c r="M22">
-        <v>1.063921482925037</v>
+        <v>0.8178965486613278</v>
       </c>
       <c r="N22">
-        <v>1.057205436336334</v>
+        <v>0.802066666520989</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050168906849766</v>
+        <v>0.7781462861443985</v>
       </c>
       <c r="D23">
-        <v>1.055760952536984</v>
+        <v>0.8113580850326826</v>
       </c>
       <c r="E23">
-        <v>1.046864688921008</v>
+        <v>0.8129573794262409</v>
       </c>
       <c r="F23">
-        <v>1.061405333240324</v>
+        <v>0.8183679169417098</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02812585676196</v>
+        <v>1.029886097761618</v>
       </c>
       <c r="J23">
-        <v>1.056767059920024</v>
+        <v>0.8220057146184891</v>
       </c>
       <c r="K23">
-        <v>1.05932846039377</v>
+        <v>0.8314622246027326</v>
       </c>
       <c r="L23">
-        <v>1.050464827376597</v>
+        <v>0.8330071982703623</v>
       </c>
       <c r="M23">
-        <v>1.064952451222203</v>
+        <v>0.8382361527647241</v>
       </c>
       <c r="N23">
-        <v>1.058267790357986</v>
+        <v>0.8231730570186205</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.054842057032564</v>
+        <v>0.8427077111348404</v>
       </c>
       <c r="D24">
-        <v>1.060061523575272</v>
+        <v>0.8689935946334678</v>
       </c>
       <c r="E24">
-        <v>1.050968705627154</v>
+        <v>0.8679276687060207</v>
       </c>
       <c r="F24">
-        <v>1.065704288310773</v>
+        <v>0.8758871109138321</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028299126445682</v>
+        <v>1.034511872377129</v>
       </c>
       <c r="J24">
-        <v>1.060907521094832</v>
+        <v>0.8779684054003909</v>
       </c>
       <c r="K24">
-        <v>1.063349711565542</v>
+        <v>0.8857915086841444</v>
       </c>
       <c r="L24">
-        <v>1.054287349239813</v>
+        <v>0.8847527740541402</v>
       </c>
       <c r="M24">
-        <v>1.068973862955187</v>
+        <v>0.8925113285675409</v>
       </c>
       <c r="N24">
-        <v>1.06241413146258</v>
+        <v>0.8792152212404429</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.06019176451774</v>
+        <v>0.8934502165206064</v>
       </c>
       <c r="D25">
-        <v>1.064982213898239</v>
+        <v>0.9147018481373572</v>
       </c>
       <c r="E25">
-        <v>1.055664707598433</v>
+        <v>0.9115391911275338</v>
       </c>
       <c r="F25">
-        <v>1.070619743892874</v>
+        <v>0.9216527470480289</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028483357108061</v>
+        <v>1.038221226638854</v>
       </c>
       <c r="J25">
-        <v>1.065641599946277</v>
+        <v>0.9221848227609641</v>
       </c>
       <c r="K25">
-        <v>1.067945770163264</v>
+        <v>0.9287863242750406</v>
       </c>
       <c r="L25">
-        <v>1.058656089067854</v>
+        <v>0.9256857951681552</v>
       </c>
       <c r="M25">
-        <v>1.073566720477463</v>
+        <v>0.9356026395061907</v>
       </c>
       <c r="N25">
-        <v>1.067154933249001</v>
+        <v>0.9234944309853623</v>
       </c>
     </row>
   </sheetData>
